--- a/rnaSample/rnaSample_hbrown_08.08.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.08.19.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">08.08.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Trizol</t>
+    <t xml:space="preserve">TRIzol</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -109,12 +109,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,19 +186,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,12 +214,14 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -243,7 +231,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -288,26 +276,26 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="n">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -340,7 +328,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -359,7 +347,7 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -378,7 +366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -397,7 +385,7 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="0" t="s">
@@ -416,7 +404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -435,7 +423,7 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -454,7 +442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -473,7 +461,7 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -492,7 +480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -511,7 +499,7 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -530,7 +518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -549,7 +537,7 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -568,7 +556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
@@ -587,7 +575,7 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="0" t="s">
@@ -606,7 +594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
@@ -625,7 +613,7 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="0" t="s">
@@ -644,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
@@ -663,7 +651,7 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="0" t="s">
@@ -682,7 +670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
@@ -701,7 +689,7 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -720,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
@@ -739,7 +727,7 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -758,7 +746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
@@ -777,7 +765,7 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="0" t="s">
@@ -796,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
@@ -815,7 +803,7 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="0" t="s">
@@ -834,7 +822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
@@ -853,7 +841,7 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="0" t="s">
@@ -872,7 +860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
@@ -891,7 +879,7 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="0" t="s">
@@ -910,7 +898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
@@ -929,7 +917,7 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="0" t="s">
@@ -948,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
@@ -967,7 +955,7 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="0" t="s">
@@ -986,7 +974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +993,7 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="0" t="s">
@@ -1024,7 +1012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
@@ -1043,7 +1031,7 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -1062,7 +1050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1069,7 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="0" t="s">
@@ -1100,7 +1088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +1107,7 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -1138,7 +1126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1145,7 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="0" t="s">
@@ -1176,7 +1164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1183,7 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="0" t="s">
@@ -1214,7 +1202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1221,7 @@
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="0" t="s">
@@ -1252,7 +1240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
@@ -1271,7 +1259,7 @@
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="0" t="s">

--- a/rnaSample/rnaSample_hbrown_08.08.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.08.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="17">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -77,8 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -173,7 +174,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,6 +192,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,7 +219,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -298,8 +303,8 @@
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
+      <c r="H2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
@@ -350,8 +355,8 @@
       <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
+      <c r="H3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>16</v>
@@ -388,8 +393,8 @@
       <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>16</v>
+      <c r="H4" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>16</v>
@@ -426,8 +431,8 @@
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>16</v>
+      <c r="H5" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>16</v>
@@ -464,8 +469,8 @@
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>16</v>
+      <c r="H6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>16</v>
@@ -502,8 +507,8 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>16</v>
+      <c r="H7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>16</v>
@@ -540,8 +545,8 @@
       <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>16</v>
+      <c r="H8" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>16</v>
@@ -578,8 +583,8 @@
       <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>16</v>
+      <c r="H9" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>16</v>
@@ -616,8 +621,8 @@
       <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>16</v>
+      <c r="H10" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>16</v>
@@ -654,8 +659,8 @@
       <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>16</v>
+      <c r="H11" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>16</v>
@@ -692,8 +697,8 @@
       <c r="G12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>16</v>
+      <c r="H12" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>16</v>
@@ -730,8 +735,8 @@
       <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>16</v>
+      <c r="H13" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>16</v>
@@ -768,8 +773,8 @@
       <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>16</v>
+      <c r="H14" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>16</v>
@@ -806,8 +811,8 @@
       <c r="G15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>16</v>
+      <c r="H15" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>16</v>
@@ -844,8 +849,8 @@
       <c r="G16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>16</v>
+      <c r="H16" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>16</v>
@@ -882,8 +887,8 @@
       <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>16</v>
+      <c r="H17" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>16</v>
@@ -920,8 +925,8 @@
       <c r="G18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>16</v>
+      <c r="H18" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>16</v>
@@ -958,8 +963,8 @@
       <c r="G19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>16</v>
+      <c r="H19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>16</v>
@@ -996,8 +1001,8 @@
       <c r="G20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>16</v>
+      <c r="H20" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>16</v>
@@ -1034,8 +1039,8 @@
       <c r="G21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>16</v>
+      <c r="H21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>16</v>
@@ -1072,8 +1077,8 @@
       <c r="G22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>16</v>
+      <c r="H22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>16</v>
@@ -1110,8 +1115,8 @@
       <c r="G23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>16</v>
+      <c r="H23" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>16</v>
@@ -1148,8 +1153,8 @@
       <c r="G24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>16</v>
+      <c r="H24" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>16</v>
@@ -1186,8 +1191,8 @@
       <c r="G25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>16</v>
+      <c r="H25" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>16</v>
@@ -1224,8 +1229,8 @@
       <c r="G26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>16</v>
+      <c r="H26" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>16</v>
@@ -1262,8 +1267,8 @@
       <c r="G27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>16</v>
+      <c r="H27" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>16</v>

--- a/rnaSample/rnaSample_hbrown_08.08.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_08.08.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101CE7CC-9707-534E-9D34-405677A1D63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72E7DE9-51AD-0A40-84A7-8F49A224D84B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="14980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -62,14 +62,14 @@
   <si>
     <t>TRIzol</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -134,7 +134,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="H2" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,8 +528,8 @@
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="b">
-        <v>0</v>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -572,8 +572,8 @@
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -598,8 +598,8 @@
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="b">
-        <v>0</v>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -624,8 +624,8 @@
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5" t="b">
-        <v>0</v>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -650,8 +650,8 @@
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -676,8 +676,8 @@
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="b">
-        <v>0</v>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -702,8 +702,8 @@
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="b">
-        <v>0</v>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -728,8 +728,8 @@
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="b">
-        <v>0</v>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -754,8 +754,8 @@
       <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5" t="b">
-        <v>0</v>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -780,8 +780,8 @@
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="b">
-        <v>0</v>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -806,8 +806,8 @@
       <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="b">
-        <v>0</v>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -832,8 +832,8 @@
       <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5" t="b">
-        <v>0</v>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -858,8 +858,8 @@
       <c r="G14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="5" t="b">
-        <v>0</v>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -884,8 +884,8 @@
       <c r="G15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -910,8 +910,8 @@
       <c r="G16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5" t="b">
-        <v>0</v>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -936,8 +936,8 @@
       <c r="G17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="5" t="b">
-        <v>0</v>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -962,8 +962,8 @@
       <c r="G18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="5" t="b">
-        <v>0</v>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -988,8 +988,8 @@
       <c r="G19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="5" t="b">
-        <v>0</v>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1014,8 +1014,8 @@
       <c r="G20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="5" t="b">
-        <v>0</v>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1040,8 +1040,8 @@
       <c r="G21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5" t="b">
-        <v>0</v>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1066,8 +1066,8 @@
       <c r="G22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="5" t="b">
-        <v>0</v>
+      <c r="H22" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1092,8 +1092,8 @@
       <c r="G23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="5" t="b">
-        <v>0</v>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1118,8 +1118,8 @@
       <c r="G24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="5" t="b">
-        <v>0</v>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1144,8 +1144,8 @@
       <c r="G25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="5" t="b">
-        <v>0</v>
+      <c r="H25" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1170,8 +1170,8 @@
       <c r="G26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="5" t="b">
-        <v>0</v>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1196,8 +1196,8 @@
       <c r="G27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="5" t="b">
-        <v>0</v>
+      <c r="H27" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
